--- a/biology/Botanique/Jardin_botanique_de_San_Diego/Jardin_botanique_de_San_Diego.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_San_Diego/Jardin_botanique_de_San_Diego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin botanique de San Diego est un jardin botanique situé à Encinitas, en Californie. Il est membre du Botanic Gardens Conservation International[1].
+Le jardin botanique de San Diego est un jardin botanique situé à Encinitas, en Californie. Il est membre du Botanic Gardens Conservation International.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 1957, il était la propriété de Ruth Baird Larabee, qui le légua au comté de San Diego, qui créa en 1961 la Fondation des jardins botaniques Quail, et en mars 1970, le jardin botanique Quayle ouvrit au public
 	Infrastructure
